--- a/DBShortSheet.xlsx
+++ b/DBShortSheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18023"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jman1\Documents\Western\Senior Year\CS 4900\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jman1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>DB ShortSheet</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Database of bacteriocins, or peptides for fighting bacterial infections.</t>
   </si>
   <si>
-    <t>Amper</t>
-  </si>
-  <si>
     <t>marray.cmdr.ubc.ca/cgi-bin/amp.pl</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Allergen Online Celiac Disease</t>
   </si>
   <si>
-    <t>http://www.allergenonline.org/celiachome.shtml</t>
-  </si>
-  <si>
     <t>Allergen</t>
   </si>
   <si>
@@ -333,13 +327,67 @@
   </si>
   <si>
     <t>http://www.yadamp.unisa.it/</t>
+  </si>
+  <si>
+    <t>No longer working</t>
+  </si>
+  <si>
+    <t>No download link/cannot extract</t>
+  </si>
+  <si>
+    <t>No clear way to scrap data as a whole</t>
+  </si>
+  <si>
+    <t>Compilation of databases</t>
+  </si>
+  <si>
+    <t>Dead link</t>
+  </si>
+  <si>
+    <t>Not a db</t>
+  </si>
+  <si>
+    <t>Database of toxins, no effects listed</t>
+  </si>
+  <si>
+    <t>Button download, no link offered</t>
+  </si>
+  <si>
+    <t>Database of bacteriocins, no effects listed</t>
+  </si>
+  <si>
+    <t>Amper+A8:E8</t>
+  </si>
+  <si>
+    <t>http://www.allergenonline.org/celiacbrowse.shtml</t>
+  </si>
+  <si>
+    <t>Sequences only</t>
+  </si>
+  <si>
+    <t>Script written but will only download the first 10 sequences</t>
+  </si>
+  <si>
+    <t>Searchable but not easily scrapeable</t>
+  </si>
+  <si>
+    <t>Downloads broken</t>
+  </si>
+  <si>
+    <t>Sequences, no properties</t>
+  </si>
+  <si>
+    <t>Site was Hacked</t>
+  </si>
+  <si>
+    <t>can be easily divided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,12 +404,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -429,18 +495,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,11 +508,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,14 +864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -786,15 +879,15 @@
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -811,649 +904,700 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45.75" thickTop="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="18">
         <v>1544</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>9114</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="4" t="s">
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="12">
         <v>2683</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="60">
-      <c r="A6" s="4" t="s">
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>219</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="4" t="s">
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>229</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="4" t="s">
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6">
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5978</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2035</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5978</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2035</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="105">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="9">
+        <v>2818</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6">
-        <v>2818</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="4" t="s">
+      <c r="C31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
-      <c r="A32" s="4" t="s">
+      <c r="C32" s="9">
+        <v>174</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="6">
-        <v>174</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="B33" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="60">
-      <c r="A33" s="4" t="s">
+      <c r="C33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4" t="s">
+      <c r="B34" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="4" t="s">
+      <c r="C34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="B35" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="30">
-      <c r="A35" s="4" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="4" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="4" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10"/>
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="30">
-      <c r="A40" s="4" t="s">
+      <c r="C40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30">
-      <c r="A41" s="4" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="4" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="7"/>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="4" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="C47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="4" t="s">
+      <c r="C48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="30">
-      <c r="A51" s="4" t="s">
+      <c r="C51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="4" t="s">
+      <c r="C52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="75">
-      <c r="A53" s="4" t="s">
+      <c r="C53" s="4">
+        <v>4180</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="E53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="6">
-        <v>4180</v>
-      </c>
-      <c r="D53" s="6" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="30">
-      <c r="A54" s="4" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" ht="60">
-      <c r="A55" s="4" t="s">
+      <c r="C55" s="15">
+        <v>1089</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="E55" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="6">
-        <v>1089</v>
-      </c>
-      <c r="D55" s="6" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>+SUM(C3:C56)</f>
         <v>30063</v>
@@ -1464,40 +1608,39 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{363F34A4-7E61-4AAD-A92F-4482B634A9EA}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{E07A8B61-B33C-4366-BB00-396E8654492F}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{D7F57E00-C570-410C-BC52-94369604DA11}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{0686E17A-B785-4F3D-8606-A07695F3E5E6}"/>
-    <hyperlink ref="B52" r:id="rId10" xr:uid="{F341D4D7-8119-4F95-8971-D0829A60CC2A}"/>
-    <hyperlink ref="B51" r:id="rId11" xr:uid="{3ABEB344-4C11-4671-8971-EB8352BDD4A3}"/>
-    <hyperlink ref="B48" r:id="rId12" xr:uid="{352EB027-A9AB-4149-AF5A-49DF02415935}"/>
-    <hyperlink ref="B47" r:id="rId13" xr:uid="{35709AB1-F938-497F-877C-0175068E42DB}"/>
-    <hyperlink ref="B53" r:id="rId14" xr:uid="{3A508E1D-73B8-4952-86CA-B92AC95ECB11}"/>
-    <hyperlink ref="B54" r:id="rId15" xr:uid="{00F1C3BF-AA81-4719-B066-96009A03A2C5}"/>
-    <hyperlink ref="B55" r:id="rId16" xr:uid="{CFD387CA-996D-44C2-8551-A6DE4BD4B2C2}"/>
-    <hyperlink ref="B56" r:id="rId17" xr:uid="{1F298EDF-441E-45A0-A075-239B57617B14}"/>
-    <hyperlink ref="B49" r:id="rId18" xr:uid="{DBCFAB7D-CB12-4322-8503-D45758840D7F}"/>
-    <hyperlink ref="B50" r:id="rId19" xr:uid="{2790D88A-D9FE-476F-8664-79089613F02E}"/>
-    <hyperlink ref="B45" r:id="rId20" xr:uid="{6A08D2C3-F2B9-4817-944E-A416D9823C38}"/>
-    <hyperlink ref="B43" r:id="rId21" xr:uid="{D7E26354-AFC6-4358-8677-19B4B493D7DC}"/>
-    <hyperlink ref="B42" r:id="rId22" xr:uid="{87CB1A0F-ACF8-4A16-AF57-F1ADBB60BA77}"/>
-    <hyperlink ref="B41" r:id="rId23" xr:uid="{BFED9C7B-C8E2-4804-B1A1-EE294E22E1E3}"/>
-    <hyperlink ref="B40" r:id="rId24" xr:uid="{14036FEA-AE6E-4EFD-AF51-60E77F220651}"/>
-    <hyperlink ref="B39" r:id="rId25" xr:uid="{086D3727-088F-406C-A47A-DC745E6A5D3C}"/>
-    <hyperlink ref="B38" r:id="rId26" xr:uid="{B6EBD1DC-20A3-4743-8B08-F0C2A5234212}"/>
-    <hyperlink ref="B37" r:id="rId27" xr:uid="{B64FD91B-7E6A-4F8E-9943-C2F1565EC565}"/>
-    <hyperlink ref="B36" r:id="rId28" xr:uid="{D2537D70-446D-4EED-B1BB-B5FE8336E4D8}"/>
-    <hyperlink ref="B35" r:id="rId29" xr:uid="{ECBFE30E-B2EF-4C97-BC95-DDD365D63D24}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{17BDECD3-8170-4E7A-9E93-036409F357FE}"/>
-    <hyperlink ref="B33" r:id="rId31" xr:uid="{DDE0A87C-EB81-4249-9851-ED6EF30AC5A7}"/>
-    <hyperlink ref="B32" r:id="rId32" xr:uid="{615B7E96-CABB-460B-8F3F-D99969047922}"/>
-    <hyperlink ref="B31" r:id="rId33" location="datPEP " xr:uid="{7F67BA64-531B-4149-BE4E-7FEAEE1CB679}"/>
-    <hyperlink ref="B46" r:id="rId34" xr:uid="{E955FC87-6C36-4473-8510-5D3D2241EF8A}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B52" r:id="rId9"/>
+    <hyperlink ref="B51" r:id="rId10"/>
+    <hyperlink ref="B48" r:id="rId11"/>
+    <hyperlink ref="B47" r:id="rId12"/>
+    <hyperlink ref="B53" r:id="rId13"/>
+    <hyperlink ref="B54" r:id="rId14"/>
+    <hyperlink ref="B55" r:id="rId15"/>
+    <hyperlink ref="B56" r:id="rId16"/>
+    <hyperlink ref="B49" r:id="rId17"/>
+    <hyperlink ref="B50" r:id="rId18"/>
+    <hyperlink ref="B45" r:id="rId19"/>
+    <hyperlink ref="B43" r:id="rId20"/>
+    <hyperlink ref="B42" r:id="rId21"/>
+    <hyperlink ref="B41" r:id="rId22"/>
+    <hyperlink ref="B40" r:id="rId23"/>
+    <hyperlink ref="B39" r:id="rId24"/>
+    <hyperlink ref="B38" r:id="rId25"/>
+    <hyperlink ref="B37" r:id="rId26"/>
+    <hyperlink ref="B36" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B31" r:id="rId32" location="datPEP "/>
+    <hyperlink ref="B46" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
